--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6124562903990008</v>
+        <v>0.5901729054339386</v>
       </c>
       <c r="C11" t="n">
-        <v>1.990521425910581</v>
+        <v>1.928612797831493</v>
       </c>
       <c r="D11" t="n">
-        <v>3.486218531460316</v>
+        <v>3.327792963339926</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5901729054339386</v>
+        <v>0.5965579788056452</v>
       </c>
       <c r="C11" t="n">
-        <v>1.928612797831493</v>
+        <v>1.950688442252644</v>
       </c>
       <c r="D11" t="n">
-        <v>3.327792963339926</v>
+        <v>3.426655033903355</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.804070092914309</v>
+        <v>0.0580407009291431</v>
       </c>
       <c r="C2" t="n">
-        <v>18.74858543613779</v>
+        <v>0.1874858543613779</v>
       </c>
       <c r="D2" t="n">
-        <v>5.553259056916889</v>
+        <v>0.05553259056916889</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.49077902871761</v>
+        <v>0.1049077902871761</v>
       </c>
       <c r="C3" t="n">
-        <v>35.75561073692998</v>
+        <v>0.3575561073692998</v>
       </c>
       <c r="D3" t="n">
-        <v>22.48980978462356</v>
+        <v>0.2248980978462356</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.231451372957437</v>
+        <v>0.07231451372957437</v>
       </c>
       <c r="C4" t="n">
-        <v>23.48791457046884</v>
+        <v>0.2348791457046884</v>
       </c>
       <c r="D4" t="n">
-        <v>30.2823867017152</v>
+        <v>0.302823867017152</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.976104682197287</v>
+        <v>0.05976104682197286</v>
       </c>
       <c r="C5" t="n">
-        <v>19.36910600794592</v>
+        <v>0.1936910600794592</v>
       </c>
       <c r="D5" t="n">
-        <v>24.15540575077124</v>
+        <v>0.2415540575077124</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.978696953487973</v>
+        <v>0.05978696953487973</v>
       </c>
       <c r="C6" t="n">
-        <v>19.43043080434758</v>
+        <v>0.1943043080434758</v>
       </c>
       <c r="D6" t="n">
-        <v>24.87817336270292</v>
+        <v>0.2487817336270292</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.176751183835952</v>
+        <v>0.08176751183835952</v>
       </c>
       <c r="C7" t="n">
-        <v>27.93578283426449</v>
+        <v>0.2793578283426449</v>
       </c>
       <c r="D7" t="n">
-        <v>37.04072868069527</v>
+        <v>0.3704072868069527</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.44239785061843</v>
+        <v>0.1044239785061843</v>
       </c>
       <c r="C8" t="n">
-        <v>35.5833155716052</v>
+        <v>0.355833155716052</v>
       </c>
       <c r="D8" t="n">
-        <v>47.3429183335043</v>
+        <v>0.473429183335043</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.59664465324949</v>
+        <v>0.1059664465324949</v>
       </c>
       <c r="C9" t="n">
-        <v>36.27818013282902</v>
+        <v>0.3627818013282902</v>
       </c>
       <c r="D9" t="n">
-        <v>47.63061652142237</v>
+        <v>0.4763061652142237</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.98178276465558</v>
+        <v>0.2098178276465558</v>
       </c>
       <c r="C10" t="n">
-        <v>95.20218023565519</v>
+        <v>0.9520218023565519</v>
       </c>
       <c r="D10" t="n">
-        <v>95.56228481762584</v>
+        <v>0.9556228481762584</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5965579788056452</v>
+        <v>0.005884244509890183</v>
       </c>
       <c r="C11" t="n">
-        <v>1.950688442252644</v>
+        <v>0.01918889271773959</v>
       </c>
       <c r="D11" t="n">
-        <v>3.426655033903355</v>
+        <v>0.03236793314672981</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01310781677262529</v>
+        <v>0.0001310781677262529</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04716332397934363</v>
+        <v>0.0004716332397934363</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06914487636259531</v>
+        <v>0.0006914487636259532</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9452640379749043</v>
+        <v>0.009452640379749043</v>
       </c>
       <c r="C13" t="n">
-        <v>3.248614827440376</v>
+        <v>0.03248614827440376</v>
       </c>
       <c r="D13" t="n">
-        <v>5.056895211564648</v>
+        <v>0.05056895211564649</v>
       </c>
     </row>
   </sheetData>
